--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_477__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_477__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,7 +5987,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>91.21000671386719</c:v>
+                  <c:v>91.20997619628906</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.464318513870239</c:v>
@@ -6002,7 +6002,7 @@
                   <c:v>99.28575134277344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.82418823242188</c:v>
+                  <c:v>91.82418060302734</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>94.75105285644531</c:v>
@@ -6011,19 +6011,19 @@
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.96737670898438</c:v>
+                  <c:v>48.96738052368164</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>96.72896575927734</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95.02549743652344</c:v>
+                  <c:v>95.0255126953125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.16909980773926</c:v>
+                  <c:v>15.16909694671631</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97.57660675048828</c:v>
+                  <c:v>97.57661437988281</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>99.73632049560547</c:v>
@@ -6032,7 +6032,7 @@
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.477140426635742</c:v>
+                  <c:v>1.477140545845032</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>101.5065994262695</c:v>
@@ -6041,10 +6041,10 @@
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>60.60111236572266</c:v>
+                  <c:v>60.60110473632812</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.97951316833496</c:v>
+                  <c:v>28.97951126098633</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>82.22748565673828</c:v>
@@ -6053,7 +6053,7 @@
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>102.0076522827148</c:v>
+                  <c:v>102.0076446533203</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1.464318513870239</c:v>
@@ -6062,16 +6062,16 @@
                   <c:v>22.0185546875</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.62324523925781</c:v>
+                  <c:v>30.62323188781738</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>59.36952590942383</c:v>
+                  <c:v>59.36952972412109</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>92.87518310546875</c:v>
+                  <c:v>92.87519073486328</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>84.96254730224609</c:v>
@@ -6089,7 +6089,7 @@
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>75.20930480957031</c:v>
+                  <c:v>75.20931243896484</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1.464318513870239</c:v>
@@ -6101,7 +6101,7 @@
                   <c:v>29.00175476074219</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>98.29925537109375</c:v>
+                  <c:v>98.29927062988281</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1.464318513870239</c:v>
@@ -6119,7 +6119,7 @@
                   <c:v>28.85493469238281</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>40.81923294067383</c:v>
+                  <c:v>40.81922149658203</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>99.2169189453125</c:v>
@@ -6128,64 +6128,64 @@
                   <c:v>98.63486480712891</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>24.43148040771484</c:v>
+                  <c:v>24.43148231506348</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>75.42044067382812</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>96.89539337158203</c:v>
+                  <c:v>96.89537048339844</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.703295230865479</c:v>
+                  <c:v>3.703281402587891</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>38.76844024658203</c:v>
+                  <c:v>38.7684326171875</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>92.27487945556641</c:v>
+                  <c:v>92.27488708496094</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>65.63646697998047</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.674861431121826</c:v>
+                  <c:v>7.674860000610352</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>99.86530303955078</c:v>
+                  <c:v>99.86529541015625</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>85.51207733154297</c:v>
+                  <c:v>85.51206970214844</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>88.91348266601562</c:v>
+                  <c:v>88.91349029541016</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>99.52720642089844</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>23.44101333618164</c:v>
+                  <c:v>23.44100761413574</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>91.03883361816406</c:v>
+                  <c:v>91.03884887695312</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>78.79671478271484</c:v>
@@ -6197,13 +6197,13 @@
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>95.267333984375</c:v>
+                  <c:v>95.26732635498047</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>95.82361602783203</c:v>
+                  <c:v>95.82360076904297</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>97.96119689941406</c:v>
+                  <c:v>97.96118927001953</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>92.75508880615234</c:v>
@@ -6215,19 +6215,19 @@
                   <c:v>80.98328399658203</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>89.74884796142578</c:v>
+                  <c:v>89.74884033203125</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>97.70116424560547</c:v>
+                  <c:v>97.70115661621094</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>72.27605438232422</c:v>
+                  <c:v>72.27607727050781</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>93.95646667480469</c:v>
+                  <c:v>93.95648956298828</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>90.99433898925781</c:v>
@@ -6236,31 +6236,31 @@
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>74.88597106933594</c:v>
+                  <c:v>74.88596343994141</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>34.91541290283203</c:v>
+                  <c:v>34.9154167175293</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>93.56089019775391</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.371517658233643</c:v>
+                  <c:v>5.371519565582275</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>100.2475433349609</c:v>
+                  <c:v>100.2475509643555</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>88.84323883056641</c:v>
+                  <c:v>88.84324645996094</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>41.81104278564453</c:v>
+                  <c:v>41.8110237121582</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>92.72824096679688</c:v>
@@ -6269,7 +6269,7 @@
                   <c:v>1.464318513870239</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>97.70635223388672</c:v>
+                  <c:v>97.70633697509766</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>1.464318513870239</c:v>
@@ -6278,10 +6278,10 @@
                   <c:v>87.37473297119141</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.097372055053711</c:v>
+                  <c:v>9.097375869750977</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>70.54458618164062</c:v>
+                  <c:v>70.54457855224609</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>105.3298873901367</c:v>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>91.21000671386719</v>
+        <v>91.20997619628906</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>96.0889</v>
       </c>
       <c r="F7">
-        <v>91.82418823242188</v>
+        <v>91.82418060302734</v>
       </c>
       <c r="G7">
         <v>123</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.96737670898438</v>
+        <v>48.96738052368164</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>95.02549743652344</v>
+        <v>95.0255126953125</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>15.16909980773926</v>
+        <v>15.16909694671631</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>97.57660675048828</v>
+        <v>97.57661437988281</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.477140426635742</v>
+        <v>1.477140545845032</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>60.60111236572266</v>
+        <v>60.60110473632812</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.97951316833496</v>
+        <v>28.97951126098633</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>94.6263</v>
       </c>
       <c r="F24">
-        <v>102.0076522827148</v>
+        <v>102.0076446533203</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>30.62324523925781</v>
+        <v>30.62323188781738</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>59.36952590942383</v>
+        <v>59.36952972412109</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>90.9726</v>
       </c>
       <c r="F30">
-        <v>92.87518310546875</v>
+        <v>92.87519073486328</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>94.44029999999999</v>
       </c>
       <c r="F36">
-        <v>75.20930480957031</v>
+        <v>75.20931243896484</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>97.63800000000001</v>
       </c>
       <c r="F40">
-        <v>98.29925537109375</v>
+        <v>98.29927062988281</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>90.426</v>
       </c>
       <c r="F46">
-        <v>40.81923294067383</v>
+        <v>40.81922149658203</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>24.43148040771484</v>
+        <v>24.43148231506348</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>97.8107</v>
       </c>
       <c r="F51">
-        <v>96.89539337158203</v>
+        <v>96.89537048339844</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.4695</v>
       </c>
       <c r="F52">
-        <v>3.703295230865479</v>
+        <v>3.703281402587891</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>55.2559</v>
       </c>
       <c r="F54">
-        <v>38.76844024658203</v>
+        <v>38.7684326171875</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>92.9953</v>
       </c>
       <c r="F56">
-        <v>92.27487945556641</v>
+        <v>92.27488708496094</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>27.5735</v>
       </c>
       <c r="F58">
-        <v>7.674861431121826</v>
+        <v>7.674860000610352</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>95.5249</v>
       </c>
       <c r="F60">
-        <v>99.86530303955078</v>
+        <v>99.86529541015625</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>95.947</v>
       </c>
       <c r="F62">
-        <v>85.51207733154297</v>
+        <v>85.51206970214844</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>72.6528</v>
       </c>
       <c r="F64">
-        <v>88.91348266601562</v>
+        <v>88.91349029541016</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>39.3514</v>
       </c>
       <c r="F66">
-        <v>23.44101333618164</v>
+        <v>23.44100761413574</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.0749</v>
       </c>
       <c r="F68">
-        <v>91.03883361816406</v>
+        <v>91.03884887695312</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>94.26949999999999</v>
       </c>
       <c r="F72">
-        <v>95.267333984375</v>
+        <v>95.26732635498047</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>95.1549</v>
       </c>
       <c r="F73">
-        <v>95.82361602783203</v>
+        <v>95.82360076904297</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>97.96119689941406</v>
+        <v>97.96118927001953</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>64.6464</v>
       </c>
       <c r="F78">
-        <v>89.74884796142578</v>
+        <v>89.74884033203125</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.7921</v>
       </c>
       <c r="F79">
-        <v>97.70116424560547</v>
+        <v>97.70115661621094</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>49.6912</v>
       </c>
       <c r="F80">
-        <v>72.27605438232422</v>
+        <v>72.27607727050781</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>97.32899999999999</v>
       </c>
       <c r="F82">
-        <v>93.95646667480469</v>
+        <v>93.95648956298828</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5714</v>
       </c>
       <c r="F85">
-        <v>74.88597106933594</v>
+        <v>74.88596343994141</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>34.91541290283203</v>
+        <v>34.9154167175293</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>5.371517658233643</v>
+        <v>5.371519565582275</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>93.3051</v>
       </c>
       <c r="F90">
-        <v>100.2475433349609</v>
+        <v>100.2475509643555</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>75.5564</v>
       </c>
       <c r="F91">
-        <v>88.84323883056641</v>
+        <v>88.84324645996094</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>41.81104278564453</v>
+        <v>41.8110237121582</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>92.05110000000001</v>
       </c>
       <c r="F96">
-        <v>97.70635223388672</v>
+        <v>97.70633697509766</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>9.097372055053711</v>
+        <v>9.097375869750977</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>70.54458618164062</v>
+        <v>70.54457855224609</v>
       </c>
     </row>
     <row r="101" spans="1:6">
